--- a/Excel/RoleLevel.xlsx
+++ b/Excel/RoleLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A317D2F-3A6B-43E7-BD72-9A76598AB029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE3001-FC39-49CE-B3F4-803A23DC3848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="6255" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleLevel" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
